--- a/Code/Results/Cases/Case_3_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9411547488855376</v>
+        <v>0.4293483371413345</v>
       </c>
       <c r="C2">
-        <v>0.1391899371356047</v>
+        <v>0.1877078620774881</v>
       </c>
       <c r="D2">
-        <v>0.07690957451040958</v>
+        <v>0.04969493119833857</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5621010669232689</v>
+        <v>0.9677544571148289</v>
       </c>
       <c r="G2">
-        <v>0.0008166459303061982</v>
+        <v>0.002465892824517755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4447353101086051</v>
+        <v>0.9550838363352696</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8514601584363106</v>
+        <v>0.2626602799647628</v>
       </c>
       <c r="L2">
-        <v>0.2283690625490351</v>
+        <v>0.304282200983792</v>
       </c>
       <c r="M2">
-        <v>0.2280247741897661</v>
+        <v>0.1644841351855959</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.755441046329565</v>
+        <v>3.466989768885725</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.817949835982887</v>
+        <v>0.3935028817097646</v>
       </c>
       <c r="C3">
-        <v>0.1366051965510522</v>
+        <v>0.1867812462712806</v>
       </c>
       <c r="D3">
-        <v>0.07060627525478225</v>
+        <v>0.04743121432228747</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5435442419139491</v>
+        <v>0.969700940399477</v>
       </c>
       <c r="G3">
-        <v>0.0008202182117342434</v>
+        <v>0.002468236298011073</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4500010799398808</v>
+        <v>0.9625522134310422</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7456002961620101</v>
+        <v>0.2296939974483507</v>
       </c>
       <c r="L3">
-        <v>0.2093573303069149</v>
+        <v>0.3010290703549146</v>
       </c>
       <c r="M3">
-        <v>0.1995936671346463</v>
+        <v>0.1570552011898378</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.741463581824448</v>
+        <v>3.486902580698526</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7424396012263514</v>
+        <v>0.3715769101279136</v>
       </c>
       <c r="C4">
-        <v>0.1350333039416611</v>
+        <v>0.1862153439656709</v>
       </c>
       <c r="D4">
-        <v>0.06671940278863531</v>
+        <v>0.04602624700727631</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5331808553010688</v>
+        <v>0.9714272709228453</v>
       </c>
       <c r="G4">
-        <v>0.0008224861771230111</v>
+        <v>0.002469752834022627</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4540481655346653</v>
+        <v>0.9675783278341079</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6805813680986006</v>
+        <v>0.2094071574747858</v>
       </c>
       <c r="L4">
-        <v>0.1979588745520928</v>
+        <v>0.2991861802454849</v>
       </c>
       <c r="M4">
-        <v>0.1822493230102893</v>
+        <v>0.152559819005134</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.736228409036343</v>
+        <v>3.500883428954609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7116930819082086</v>
+        <v>0.3626634378722144</v>
       </c>
       <c r="C5">
-        <v>0.1343963881155261</v>
+        <v>0.1859855278985236</v>
       </c>
       <c r="D5">
-        <v>0.06513099835398606</v>
+        <v>0.04544995625015247</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5292055316456441</v>
+        <v>0.9722644031684951</v>
       </c>
       <c r="G5">
-        <v>0.0008234294383240513</v>
+        <v>0.00247039041328947</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4558952802647873</v>
+        <v>0.9697373186261444</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6540724698259481</v>
+        <v>0.2011291582608976</v>
       </c>
       <c r="L5">
-        <v>0.1933790453834661</v>
+        <v>0.298474125870797</v>
       </c>
       <c r="M5">
-        <v>0.1752064785897787</v>
+        <v>0.1507446402707693</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.734903902094246</v>
+        <v>3.507022010423128</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7065888389143709</v>
+        <v>0.3611846811118085</v>
       </c>
       <c r="C6">
-        <v>0.1342908442003363</v>
+        <v>0.1859474158920307</v>
       </c>
       <c r="D6">
-        <v>0.06486696667006697</v>
+        <v>0.04535403756504763</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5285600802042936</v>
+        <v>0.9724114817924061</v>
       </c>
       <c r="G6">
-        <v>0.0008235872249015563</v>
+        <v>0.0024704974671645</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4562137525962058</v>
+        <v>0.9701025111593715</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6496696680988236</v>
+        <v>0.1997539555182897</v>
       </c>
       <c r="L6">
-        <v>0.1926223895312944</v>
+        <v>0.2983582438176811</v>
       </c>
       <c r="M6">
-        <v>0.1740384471819283</v>
+        <v>0.1504442451592993</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.734731892578111</v>
+        <v>3.508067973056669</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7420248567376291</v>
+        <v>0.37145661191974</v>
       </c>
       <c r="C7">
-        <v>0.1350246997296907</v>
+        <v>0.186212241333763</v>
       </c>
       <c r="D7">
-        <v>0.06669799949379751</v>
+        <v>0.04601849011897485</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.533126253768593</v>
+        <v>0.9714380195936485</v>
       </c>
       <c r="G7">
-        <v>0.0008224988208850315</v>
+        <v>0.002469761353293476</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4540722838159326</v>
+        <v>0.9676069960265394</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6802239233274463</v>
+        <v>0.2092955611815484</v>
       </c>
       <c r="L7">
-        <v>0.1978968507650052</v>
+        <v>0.299176419469525</v>
       </c>
       <c r="M7">
-        <v>0.1821542431173064</v>
+        <v>0.1525352709790617</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.736207313403099</v>
+        <v>3.500964429135109</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8986386815545018</v>
+        <v>0.4169718849896071</v>
       </c>
       <c r="C8">
-        <v>0.1382954690413953</v>
+        <v>0.1873877499223937</v>
       </c>
       <c r="D8">
-        <v>0.07473946325470138</v>
+        <v>0.04891753716918146</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5554818057459485</v>
+        <v>0.9683153968956475</v>
       </c>
       <c r="G8">
-        <v>0.0008178623577713037</v>
+        <v>0.002466684775632662</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4463778613305465</v>
+        <v>0.9575675313122574</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8149589582858425</v>
+        <v>0.2513032028869304</v>
       </c>
       <c r="L8">
-        <v>0.2217543231005692</v>
+        <v>0.303128489923381</v>
       </c>
       <c r="M8">
-        <v>0.2181964218233716</v>
+        <v>0.1619090108709713</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.749906732074408</v>
+        <v>3.473491681591582</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.207356788790833</v>
+        <v>0.5068663648028178</v>
       </c>
       <c r="C9">
-        <v>0.1448382602185632</v>
+        <v>0.1897159465252827</v>
       </c>
       <c r="D9">
-        <v>0.09039165968106033</v>
+        <v>0.05448236403120177</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6080365409977873</v>
+        <v>0.9664046299458562</v>
       </c>
       <c r="G9">
-        <v>0.0008093478794409428</v>
+        <v>0.002461265004581262</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4380672802319978</v>
+        <v>0.9413736944611699</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.07940693843878</v>
+        <v>0.3333029934676404</v>
       </c>
       <c r="L9">
-        <v>0.270910132464067</v>
+        <v>0.3121021201440897</v>
       </c>
       <c r="M9">
-        <v>0.2899216280739267</v>
+        <v>0.1808101756588982</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.804886673190936</v>
+        <v>3.433532960790302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435910956550032</v>
+        <v>0.5732791535059505</v>
       </c>
       <c r="C10">
-        <v>0.1497375102558962</v>
+        <v>0.1914391889294009</v>
       </c>
       <c r="D10">
-        <v>0.1018428493625194</v>
+        <v>0.05849672287616414</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6527543360830776</v>
+        <v>0.9675677560779974</v>
       </c>
       <c r="G10">
-        <v>0.0008034237422886766</v>
+        <v>0.002457653391130337</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4365631192001089</v>
+        <v>0.931603822935223</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.274443016855912</v>
+        <v>0.3933016433873036</v>
       </c>
       <c r="L10">
-        <v>0.3087534910932845</v>
+        <v>0.3194386015944843</v>
       </c>
       <c r="M10">
-        <v>0.3434878820540703</v>
+        <v>0.1950089492977369</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.864711548035444</v>
+        <v>3.412655190790844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.54044666266438</v>
+        <v>0.6035674961917721</v>
       </c>
       <c r="C11">
-        <v>0.1519897746028889</v>
+        <v>0.1922256317076432</v>
       </c>
       <c r="D11">
-        <v>0.1070472554179531</v>
+        <v>0.06030670603875876</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6746107075894159</v>
+        <v>0.9686541249008371</v>
       </c>
       <c r="G11">
-        <v>0.0008007958509801577</v>
+        <v>0.002456090004917989</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4369889294877467</v>
+        <v>0.9276208771087795</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.363477060637592</v>
+        <v>0.4205398541262468</v>
       </c>
       <c r="L11">
-        <v>0.3264116805998043</v>
+        <v>0.3229371703184114</v>
       </c>
       <c r="M11">
-        <v>0.3681005555817762</v>
+        <v>0.2015352502464296</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.896688960763015</v>
+        <v>3.404998208666029</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.580128807142216</v>
+        <v>0.6150474389937415</v>
       </c>
       <c r="C12">
-        <v>0.1528463443881378</v>
+        <v>0.1925237753189322</v>
       </c>
       <c r="D12">
-        <v>0.1090178044468502</v>
+        <v>0.06098975280357877</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6831214878151428</v>
+        <v>0.969145595551538</v>
       </c>
       <c r="G12">
-        <v>0.0007998099592560823</v>
+        <v>0.002455509372598929</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4373197089292091</v>
+        <v>0.9261789601889845</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.397249299123303</v>
+        <v>0.4308458796699028</v>
       </c>
       <c r="L12">
-        <v>0.3331679762343498</v>
+        <v>0.3242851015850903</v>
       </c>
       <c r="M12">
-        <v>0.3774607981246376</v>
+        <v>0.2040161482122897</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.909531243838074</v>
+        <v>3.40236328592681</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.571577986753141</v>
+        <v>0.6125745753871286</v>
       </c>
       <c r="C13">
-        <v>0.1526616977836994</v>
+        <v>0.1924595503306819</v>
       </c>
       <c r="D13">
-        <v>0.1085934150309669</v>
+        <v>0.06084275165189723</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6812778458367248</v>
+        <v>0.9690361874435069</v>
       </c>
       <c r="G13">
-        <v>0.0008000218847860374</v>
+        <v>0.002455633916470492</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4372407647465764</v>
+        <v>0.9264865525958896</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.389973104697731</v>
+        <v>0.4286266786382953</v>
       </c>
       <c r="L13">
-        <v>0.3317096983933823</v>
+        <v>0.3239937743447712</v>
       </c>
       <c r="M13">
-        <v>0.3754430468296945</v>
+        <v>0.2034814207706788</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.906732018984115</v>
+        <v>3.402918995725145</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.543709305257465</v>
+        <v>0.6045117531498363</v>
       </c>
       <c r="C14">
-        <v>0.1520601694367372</v>
+        <v>0.1922501536177847</v>
       </c>
       <c r="D14">
-        <v>0.1072093759645654</v>
+        <v>0.06036294806519749</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6753061013465711</v>
+        <v>0.9686929537075315</v>
       </c>
       <c r="G14">
-        <v>0.0008007145583712718</v>
+        <v>0.002456042007999544</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4370126860907035</v>
+        <v>0.9275009202944418</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.366254307801086</v>
+        <v>0.4213879102300666</v>
       </c>
       <c r="L14">
-        <v>0.326966097115502</v>
+        <v>0.3230476029305862</v>
       </c>
       <c r="M14">
-        <v>0.368869799431252</v>
+        <v>0.2017391650039784</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.897730522100289</v>
+        <v>3.40477612903797</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.526652009283055</v>
+        <v>0.5995743776515212</v>
       </c>
       <c r="C15">
-        <v>0.1516922052958805</v>
+        <v>0.1921219348252237</v>
       </c>
       <c r="D15">
-        <v>0.1063615936462341</v>
+        <v>0.06006874700295839</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6716792505678058</v>
+        <v>0.9684931413419804</v>
       </c>
       <c r="G15">
-        <v>0.0008011400311228918</v>
+        <v>0.002456293457303058</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4368953649822913</v>
+        <v>0.9281308886042439</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.351733658553258</v>
+        <v>0.4169528341303135</v>
       </c>
       <c r="L15">
-        <v>0.3240697372680046</v>
+        <v>0.3224710515487033</v>
       </c>
       <c r="M15">
-        <v>0.364848844525163</v>
+        <v>0.2006732200496444</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.89231380811438</v>
+        <v>3.405948135664829</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.429091973348477</v>
+        <v>0.5713012300898583</v>
       </c>
       <c r="C16">
-        <v>0.149590818507896</v>
+        <v>0.1913878414785799</v>
       </c>
       <c r="D16">
-        <v>0.1015026698399595</v>
+        <v>0.05837810833818224</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6513578254333652</v>
+        <v>0.9675079688032042</v>
       </c>
       <c r="G16">
-        <v>0.000803596795897517</v>
+        <v>0.002457757158555268</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4365584610651894</v>
+        <v>0.9318734015997876</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.268631719542867</v>
+        <v>0.391520401770066</v>
       </c>
       <c r="L16">
-        <v>0.3076088904667102</v>
+        <v>0.3192131984659312</v>
       </c>
       <c r="M16">
-        <v>0.3418847136335259</v>
+        <v>0.1945837810361084</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.862721639580201</v>
+        <v>3.413192623155794</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369397485949605</v>
+        <v>0.5539757899927906</v>
       </c>
       <c r="C17">
-        <v>0.1483079250972494</v>
+        <v>0.1909381264423828</v>
       </c>
       <c r="D17">
-        <v>0.09852095444953335</v>
+        <v>0.05733679404445269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6392904922989544</v>
+        <v>0.9670462914754907</v>
       </c>
       <c r="G17">
-        <v>0.0008051208284057844</v>
+        <v>0.002458675430808839</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4366429427884881</v>
+        <v>0.9342874829692285</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.217739492733955</v>
+        <v>0.3759038517319766</v>
       </c>
       <c r="L17">
-        <v>0.2976281880159775</v>
+        <v>0.3172558355303039</v>
       </c>
       <c r="M17">
-        <v>0.3278629941754616</v>
+        <v>0.1908652249031277</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.845820991787463</v>
+        <v>3.4181082293656</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.335115012473722</v>
+        <v>0.544017925263887</v>
       </c>
       <c r="C18">
-        <v>0.1475722379307456</v>
+        <v>0.1906797022223401</v>
       </c>
       <c r="D18">
-        <v>0.09680547070038159</v>
+        <v>0.05673633748222073</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6324911363663404</v>
+        <v>0.9668332013921557</v>
       </c>
       <c r="G18">
-        <v>0.0008060037462814854</v>
+        <v>0.002459211087827701</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4367953880762236</v>
+        <v>0.9357194303282128</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.188496132862099</v>
+        <v>0.3669164343047271</v>
       </c>
       <c r="L18">
-        <v>0.2919288846181587</v>
+        <v>0.3161451864811653</v>
       </c>
       <c r="M18">
-        <v>0.319820842900306</v>
+        <v>0.1887327437310802</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.836545407709792</v>
+        <v>3.42110878756958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.323516071048829</v>
+        <v>0.5406476316593682</v>
       </c>
       <c r="C19">
-        <v>0.1473235160292603</v>
+        <v>0.1905922463300698</v>
       </c>
       <c r="D19">
-        <v>0.09622454194553143</v>
+        <v>0.05653277302523918</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6302128000450864</v>
+        <v>0.9667700632640219</v>
       </c>
       <c r="G19">
-        <v>0.0008063037869938336</v>
+        <v>0.002459393740292446</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4368645489468577</v>
+        <v>0.9362117229186673</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.178599370702159</v>
+        <v>0.3638725734034267</v>
       </c>
       <c r="L19">
-        <v>0.2900061263973868</v>
+        <v>0.3157717483243516</v>
       </c>
       <c r="M19">
-        <v>0.3171016812672178</v>
+        <v>0.1880118142232519</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.833479903353407</v>
+        <v>3.422154478902655</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375746553309199</v>
+        <v>0.5558193648984115</v>
       </c>
       <c r="C20">
-        <v>0.1484442616238297</v>
+        <v>0.1909859747511504</v>
       </c>
       <c r="D20">
-        <v>0.0988384096994821</v>
+        <v>0.05744780126929072</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6405603241491207</v>
+        <v>0.9670900093036892</v>
       </c>
       <c r="G20">
-        <v>0.0008049579397506843</v>
+        <v>0.002458576904171564</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.43662313139221</v>
+        <v>0.9340260049718268</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.223154021411887</v>
+        <v>0.3775668011252549</v>
       </c>
       <c r="L20">
-        <v>0.2986863321635411</v>
+        <v>0.3174626302212999</v>
       </c>
       <c r="M20">
-        <v>0.3293532403495902</v>
+        <v>0.1912604169878804</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.847573676577042</v>
+        <v>3.417567026161834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551892258348687</v>
+        <v>0.6068797222267222</v>
       </c>
       <c r="C21">
-        <v>0.1522367503450326</v>
+        <v>0.1923116496538171</v>
       </c>
       <c r="D21">
-        <v>0.1076159047929295</v>
+        <v>0.06050394214695132</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6770536528713649</v>
+        <v>0.9687915966313483</v>
       </c>
       <c r="G21">
-        <v>0.0008005108560980897</v>
+        <v>0.00245592183285077</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4370749949715744</v>
+        <v>0.9272011756170926</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.373219445040661</v>
+        <v>0.4235143466073623</v>
       </c>
       <c r="L21">
-        <v>0.3283574727511223</v>
+        <v>0.3233248901143497</v>
       </c>
       <c r="M21">
-        <v>0.3707993979521405</v>
+        <v>0.2022506502047534</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.900354182249316</v>
+        <v>3.404223462846943</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.667585522550269</v>
+        <v>0.6403109666751732</v>
       </c>
       <c r="C22">
-        <v>0.1547370054090678</v>
+        <v>0.1931799929236107</v>
       </c>
       <c r="D22">
-        <v>0.1133512962721568</v>
+        <v>0.06248756892084373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7022779972105866</v>
+        <v>0.9703704645249047</v>
       </c>
       <c r="G22">
-        <v>0.0007976580458347151</v>
+        <v>0.002454252945676713</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4383635700243715</v>
+        <v>0.9231274189084573</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.471634323876941</v>
+        <v>0.4534939771348832</v>
       </c>
       <c r="L22">
-        <v>0.3481574869284572</v>
+        <v>0.3272908201059153</v>
       </c>
       <c r="M22">
-        <v>0.3981221824221635</v>
+        <v>0.2094888851678292</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.939147322698915</v>
+        <v>3.397045004103319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.60578012536692</v>
+        <v>0.6224627726755045</v>
       </c>
       <c r="C23">
-        <v>0.1534004861332221</v>
+        <v>0.1927163740238953</v>
       </c>
       <c r="D23">
-        <v>0.1102901658506283</v>
+        <v>0.06143013675273323</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.688683830502157</v>
+        <v>0.9694850980626342</v>
       </c>
       <c r="G23">
-        <v>0.0007991758785972913</v>
+        <v>0.002455137607671701</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4375815022410734</v>
+        <v>0.9252662841134409</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.419073202256868</v>
+        <v>0.437498006187127</v>
       </c>
       <c r="L23">
-        <v>0.3375504737738453</v>
+        <v>0.3251618376388166</v>
       </c>
       <c r="M23">
-        <v>0.383516323894078</v>
+        <v>0.2056206708975026</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.918032618503446</v>
+        <v>3.400735172808226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.372876026853419</v>
+        <v>0.5549858760332995</v>
       </c>
       <c r="C24">
-        <v>0.1483826180920289</v>
+        <v>0.1909643421446887</v>
       </c>
       <c r="D24">
-        <v>0.09869489212584881</v>
+        <v>0.05739762048008146</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6399858035877628</v>
+        <v>0.9670700814520785</v>
       </c>
       <c r="G24">
-        <v>0.000805031560721245</v>
+        <v>0.002458621423928997</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4366317653167613</v>
+        <v>0.9341440819292401</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.220706066381666</v>
+        <v>0.3768150104939991</v>
       </c>
       <c r="L24">
-        <v>0.2982078249773821</v>
+        <v>0.3173690926565058</v>
       </c>
       <c r="M24">
-        <v>0.3286794408456899</v>
+        <v>0.1910817339212869</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.846779918327428</v>
+        <v>3.41781116053491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123593289794542</v>
+        <v>0.4824814142274079</v>
       </c>
       <c r="C25">
-        <v>0.1430531310759164</v>
+        <v>0.1890837799269534</v>
       </c>
       <c r="D25">
-        <v>0.08616758514577327</v>
+        <v>0.05298988616410583</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.59280704862703</v>
+        <v>0.9664706666923308</v>
       </c>
       <c r="G25">
-        <v>0.0008115915071437718</v>
+        <v>0.002462665907407074</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4395430951692063</v>
+        <v>0.9453807581443883</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.007781886919588</v>
+        <v>0.3111619797895173</v>
       </c>
       <c r="L25">
-        <v>0.2573301132393908</v>
+        <v>0.3095437646312575</v>
       </c>
       <c r="M25">
-        <v>0.2703829605612711</v>
+        <v>0.1756417802006069</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.786775071060276</v>
+        <v>3.442853458381762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4293483371413345</v>
+        <v>0.9411547488855092</v>
       </c>
       <c r="C2">
-        <v>0.1877078620774881</v>
+        <v>0.1391899371356047</v>
       </c>
       <c r="D2">
-        <v>0.04969493119833857</v>
+        <v>0.07690957451052327</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9677544571148289</v>
+        <v>0.5621010669232689</v>
       </c>
       <c r="G2">
-        <v>0.002465892824517755</v>
+        <v>0.0008166459303046293</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9550838363352696</v>
+        <v>0.4447353101086051</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2626602799647628</v>
+        <v>0.8514601584362254</v>
       </c>
       <c r="L2">
-        <v>0.304282200983792</v>
+        <v>0.2283690625490635</v>
       </c>
       <c r="M2">
-        <v>0.1644841351855959</v>
+        <v>0.2280247741897696</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.466989768885725</v>
+        <v>1.755441046329565</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3935028817097646</v>
+        <v>0.8179498359829154</v>
       </c>
       <c r="C3">
-        <v>0.1867812462712806</v>
+        <v>0.1366051965512867</v>
       </c>
       <c r="D3">
-        <v>0.04743121432228747</v>
+        <v>0.07060627525451224</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.969700940399477</v>
+        <v>0.5435442419139491</v>
       </c>
       <c r="G3">
-        <v>0.002468236298011073</v>
+        <v>0.0008202182118129692</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9625522134310422</v>
+        <v>0.4500010799398844</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2296939974483507</v>
+        <v>0.7456002961619248</v>
       </c>
       <c r="L3">
-        <v>0.3010290703549146</v>
+        <v>0.2093573303069007</v>
       </c>
       <c r="M3">
-        <v>0.1570552011898378</v>
+        <v>0.1995936671346286</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.486902580698526</v>
+        <v>1.741463581824405</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3715769101279136</v>
+        <v>0.7424396012264367</v>
       </c>
       <c r="C4">
-        <v>0.1862153439656709</v>
+        <v>0.1350333039417393</v>
       </c>
       <c r="D4">
-        <v>0.04602624700727631</v>
+        <v>0.06671940278847188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9714272709228453</v>
+        <v>0.5331808553011044</v>
       </c>
       <c r="G4">
-        <v>0.002469752834022627</v>
+        <v>0.0008224861771808146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9675783278341079</v>
+        <v>0.4540481655346866</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2094071574747858</v>
+        <v>0.680581368098629</v>
       </c>
       <c r="L4">
-        <v>0.2991861802454849</v>
+        <v>0.1979588745521141</v>
       </c>
       <c r="M4">
-        <v>0.152559819005134</v>
+        <v>0.1822493230102964</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.500883428954609</v>
+        <v>1.736228409036443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3626634378722144</v>
+        <v>0.7116930819083223</v>
       </c>
       <c r="C5">
-        <v>0.1859855278985236</v>
+        <v>0.1343963881158459</v>
       </c>
       <c r="D5">
-        <v>0.04544995625015247</v>
+        <v>0.06513099835400027</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9722644031684951</v>
+        <v>0.5292055316456228</v>
       </c>
       <c r="G5">
-        <v>0.00247039041328947</v>
+        <v>0.0008234294382453326</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9697373186261444</v>
+        <v>0.4558952802647802</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2011291582608976</v>
+        <v>0.6540724698259055</v>
       </c>
       <c r="L5">
-        <v>0.298474125870797</v>
+        <v>0.1933790453834874</v>
       </c>
       <c r="M5">
-        <v>0.1507446402707693</v>
+        <v>0.1752064785897645</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.507022010423128</v>
+        <v>1.734903902094217</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3611846811118085</v>
+        <v>0.7065888389144561</v>
       </c>
       <c r="C6">
-        <v>0.1859474158920307</v>
+        <v>0.1342908442003292</v>
       </c>
       <c r="D6">
-        <v>0.04535403756504763</v>
+        <v>0.06486696667012382</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9724114817924061</v>
+        <v>0.528560080204322</v>
       </c>
       <c r="G6">
-        <v>0.0024704974671645</v>
+        <v>0.0008235872249003223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9701025111593715</v>
+        <v>0.4562137525962164</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1997539555182897</v>
+        <v>0.6496696680988094</v>
       </c>
       <c r="L6">
-        <v>0.2983582438176811</v>
+        <v>0.1926223895313512</v>
       </c>
       <c r="M6">
-        <v>0.1504442451592993</v>
+        <v>0.1740384471819212</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.508067973056669</v>
+        <v>1.734731892578168</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.37145661191974</v>
+        <v>0.7420248567375154</v>
       </c>
       <c r="C7">
-        <v>0.186212241333763</v>
+        <v>0.1350246997297546</v>
       </c>
       <c r="D7">
-        <v>0.04601849011897485</v>
+        <v>0.06669799949379751</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9714380195936485</v>
+        <v>0.5331262537685717</v>
       </c>
       <c r="G7">
-        <v>0.002469761353293476</v>
+        <v>0.0008224988208250239</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9676069960265394</v>
+        <v>0.4540722838159468</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2092955611815484</v>
+        <v>0.6802239233274179</v>
       </c>
       <c r="L7">
-        <v>0.299176419469525</v>
+        <v>0.1978968507649626</v>
       </c>
       <c r="M7">
-        <v>0.1525352709790617</v>
+        <v>0.18215424311731</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.500964429135109</v>
+        <v>1.736207313403085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4169718849896071</v>
+        <v>0.898638681554587</v>
       </c>
       <c r="C8">
-        <v>0.1873877499223937</v>
+        <v>0.1382954690413953</v>
       </c>
       <c r="D8">
-        <v>0.04891753716918146</v>
+        <v>0.07473946325469427</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9683153968956475</v>
+        <v>0.5554818057459556</v>
       </c>
       <c r="G8">
-        <v>0.002466684775632662</v>
+        <v>0.0008178623578292574</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9575675313122574</v>
+        <v>0.4463778613305607</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2513032028869304</v>
+        <v>0.8149589582858994</v>
       </c>
       <c r="L8">
-        <v>0.303128489923381</v>
+        <v>0.2217543231005266</v>
       </c>
       <c r="M8">
-        <v>0.1619090108709713</v>
+        <v>0.2181964218233681</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.473491681591582</v>
+        <v>1.749906732074393</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5068663648028178</v>
+        <v>1.207356788790719</v>
       </c>
       <c r="C9">
-        <v>0.1897159465252827</v>
+        <v>0.1448382602183997</v>
       </c>
       <c r="D9">
-        <v>0.05448236403120177</v>
+        <v>0.09039165968121665</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9664046299458562</v>
+        <v>0.6080365409977802</v>
       </c>
       <c r="G9">
-        <v>0.002461265004581262</v>
+        <v>0.0008093478794382407</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9413736944611699</v>
+        <v>0.4380672802319943</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3333029934676404</v>
+        <v>1.079406938438893</v>
       </c>
       <c r="L9">
-        <v>0.3121021201440897</v>
+        <v>0.2709101324640528</v>
       </c>
       <c r="M9">
-        <v>0.1808101756588982</v>
+        <v>0.2899216280739125</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.433532960790302</v>
+        <v>1.804886673190964</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5732791535059505</v>
+        <v>1.435910956549918</v>
       </c>
       <c r="C10">
-        <v>0.1914391889294009</v>
+        <v>0.1497375102557541</v>
       </c>
       <c r="D10">
-        <v>0.05849672287616414</v>
+        <v>0.101842849362292</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9675677560779974</v>
+        <v>0.6527543360830919</v>
       </c>
       <c r="G10">
-        <v>0.002457653391130337</v>
+        <v>0.0008034237422641439</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.931603822935223</v>
+        <v>0.4365631192001231</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3933016433873036</v>
+        <v>1.274443016855969</v>
       </c>
       <c r="L10">
-        <v>0.3194386015944843</v>
+        <v>0.3087534910932845</v>
       </c>
       <c r="M10">
-        <v>0.1950089492977369</v>
+        <v>0.3434878820540703</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.412655190790844</v>
+        <v>1.864711548035558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6035674961917721</v>
+        <v>1.540446662664465</v>
       </c>
       <c r="C11">
-        <v>0.1922256317076432</v>
+        <v>0.1519897746028818</v>
       </c>
       <c r="D11">
-        <v>0.06030670603875876</v>
+        <v>0.1070472554180313</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9686541249008371</v>
+        <v>0.674610707589423</v>
       </c>
       <c r="G11">
-        <v>0.002456090004917989</v>
+        <v>0.0008007958509797887</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9276208771087795</v>
+        <v>0.4369889294877325</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4205398541262468</v>
+        <v>1.363477060637678</v>
       </c>
       <c r="L11">
-        <v>0.3229371703184114</v>
+        <v>0.3264116805997759</v>
       </c>
       <c r="M11">
-        <v>0.2015352502464296</v>
+        <v>0.3681005555817691</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.404998208666029</v>
+        <v>1.896688960763043</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6150474389937415</v>
+        <v>1.580128807142188</v>
       </c>
       <c r="C12">
-        <v>0.1925237753189322</v>
+        <v>0.1528463443881307</v>
       </c>
       <c r="D12">
-        <v>0.06098975280357877</v>
+        <v>0.1090178044469567</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.969145595551538</v>
+        <v>0.6831214878151499</v>
       </c>
       <c r="G12">
-        <v>0.002455509372598929</v>
+        <v>0.0007998099592841154</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9261789601889845</v>
+        <v>0.4373197089292091</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4308458796699028</v>
+        <v>1.397249299123331</v>
       </c>
       <c r="L12">
-        <v>0.3242851015850903</v>
+        <v>0.3331679762343214</v>
       </c>
       <c r="M12">
-        <v>0.2040161482122897</v>
+        <v>0.3774607981246305</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.40236328592681</v>
+        <v>1.909531243838131</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6125745753871286</v>
+        <v>1.571577986753056</v>
       </c>
       <c r="C13">
-        <v>0.1924595503306819</v>
+        <v>0.1526616977837989</v>
       </c>
       <c r="D13">
-        <v>0.06084275165189723</v>
+        <v>0.1085934150309456</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9690361874435069</v>
+        <v>0.6812778458367106</v>
       </c>
       <c r="G13">
-        <v>0.002455633916470492</v>
+        <v>0.0008000218847540874</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9264865525958896</v>
+        <v>0.4372407647465977</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4286266786382953</v>
+        <v>1.389973104697845</v>
       </c>
       <c r="L13">
-        <v>0.3239937743447712</v>
+        <v>0.3317096983933823</v>
       </c>
       <c r="M13">
-        <v>0.2034814207706788</v>
+        <v>0.3754430468297016</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.402918995725145</v>
+        <v>1.906732018984115</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6045117531498363</v>
+        <v>1.543709305257579</v>
       </c>
       <c r="C14">
-        <v>0.1922501536177847</v>
+        <v>0.1520601694369716</v>
       </c>
       <c r="D14">
-        <v>0.06036294806519749</v>
+        <v>0.1072093759646933</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9686929537075315</v>
+        <v>0.6753061013465711</v>
       </c>
       <c r="G14">
-        <v>0.002456042007999544</v>
+        <v>0.0008007145584250086</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9275009202944418</v>
+        <v>0.4370126860906822</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4213879102300666</v>
+        <v>1.366254307801057</v>
       </c>
       <c r="L14">
-        <v>0.3230476029305862</v>
+        <v>0.3269660971154593</v>
       </c>
       <c r="M14">
-        <v>0.2017391650039784</v>
+        <v>0.3688697994312733</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.40477612903797</v>
+        <v>1.897730522100204</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5995743776515212</v>
+        <v>1.526652009283112</v>
       </c>
       <c r="C15">
-        <v>0.1921219348252237</v>
+        <v>0.1516922052956389</v>
       </c>
       <c r="D15">
-        <v>0.06006874700295839</v>
+        <v>0.106361593646227</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9684931413419804</v>
+        <v>0.6716792505677844</v>
       </c>
       <c r="G15">
-        <v>0.002456293457303058</v>
+        <v>0.0008011400311218886</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9281308886042439</v>
+        <v>0.4368953649822771</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4169528341303135</v>
+        <v>1.351733658553144</v>
       </c>
       <c r="L15">
-        <v>0.3224710515487033</v>
+        <v>0.3240697372680472</v>
       </c>
       <c r="M15">
-        <v>0.2006732200496444</v>
+        <v>0.3648488445251701</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.405948135664829</v>
+        <v>1.892313808114295</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5713012300898583</v>
+        <v>1.429091973348562</v>
       </c>
       <c r="C16">
-        <v>0.1913878414785799</v>
+        <v>0.1495908185079742</v>
       </c>
       <c r="D16">
-        <v>0.05837810833818224</v>
+        <v>0.1015026698400732</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9675079688032042</v>
+        <v>0.6513578254333652</v>
       </c>
       <c r="G16">
-        <v>0.002457757158555268</v>
+        <v>0.000803596795896977</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9318734015997876</v>
+        <v>0.4365584610651609</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.391520401770066</v>
+        <v>1.268631719542867</v>
       </c>
       <c r="L16">
-        <v>0.3192131984659312</v>
+        <v>0.3076088904666108</v>
       </c>
       <c r="M16">
-        <v>0.1945837810361084</v>
+        <v>0.3418847136335188</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.413192623155794</v>
+        <v>1.862721639580201</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5539757899927906</v>
+        <v>1.369397485949634</v>
       </c>
       <c r="C17">
-        <v>0.1909381264423828</v>
+        <v>0.1483079250972423</v>
       </c>
       <c r="D17">
-        <v>0.05733679404445269</v>
+        <v>0.09852095444952624</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9670462914754907</v>
+        <v>0.6392904922989544</v>
       </c>
       <c r="G17">
-        <v>0.002458675430808839</v>
+        <v>0.0008051208284000933</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9342874829692285</v>
+        <v>0.4366429427884952</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3759038517319766</v>
+        <v>1.217739492733926</v>
       </c>
       <c r="L17">
-        <v>0.3172558355303039</v>
+        <v>0.2976281880159632</v>
       </c>
       <c r="M17">
-        <v>0.1908652249031277</v>
+        <v>0.3278629941754616</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.4181082293656</v>
+        <v>1.845820991787463</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.544017925263887</v>
+        <v>1.335115012473835</v>
       </c>
       <c r="C18">
-        <v>0.1906797022223401</v>
+        <v>0.1475722379307456</v>
       </c>
       <c r="D18">
-        <v>0.05673633748222073</v>
+        <v>0.09680547070053791</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9668332013921557</v>
+        <v>0.6324911363663333</v>
       </c>
       <c r="G18">
-        <v>0.002459211087827701</v>
+        <v>0.000806003746281403</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9357194303282128</v>
+        <v>0.4367953880762201</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3669164343047271</v>
+        <v>1.188496132862298</v>
       </c>
       <c r="L18">
-        <v>0.3161451864811653</v>
+        <v>0.2919288846180876</v>
       </c>
       <c r="M18">
-        <v>0.1887327437310802</v>
+        <v>0.3198208429002989</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.42110878756958</v>
+        <v>1.836545407709849</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5406476316593682</v>
+        <v>1.323516071048971</v>
       </c>
       <c r="C19">
-        <v>0.1905922463300698</v>
+        <v>0.1473235160291608</v>
       </c>
       <c r="D19">
-        <v>0.05653277302523918</v>
+        <v>0.09622454194560248</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9667700632640219</v>
+        <v>0.6302128000450722</v>
       </c>
       <c r="G19">
-        <v>0.002459393740292446</v>
+        <v>0.000806303786993565</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9362117229186673</v>
+        <v>0.436864548946879</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3638725734034267</v>
+        <v>1.178599370702244</v>
       </c>
       <c r="L19">
-        <v>0.3157717483243516</v>
+        <v>0.2900061263973157</v>
       </c>
       <c r="M19">
-        <v>0.1880118142232519</v>
+        <v>0.3171016812672178</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.422154478902655</v>
+        <v>1.833479903353464</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5558193648984115</v>
+        <v>1.375746553309199</v>
       </c>
       <c r="C20">
-        <v>0.1909859747511504</v>
+        <v>0.1484442616236805</v>
       </c>
       <c r="D20">
-        <v>0.05744780126929072</v>
+        <v>0.09883840969946789</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9670900093036892</v>
+        <v>0.6405603241491349</v>
       </c>
       <c r="G20">
-        <v>0.002458576904171564</v>
+        <v>0.0008049579398074872</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9340260049718268</v>
+        <v>0.4366231313921958</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3775668011252549</v>
+        <v>1.223154021411887</v>
       </c>
       <c r="L20">
-        <v>0.3174626302212999</v>
+        <v>0.2986863321637401</v>
       </c>
       <c r="M20">
-        <v>0.1912604169878804</v>
+        <v>0.3293532403495831</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.417567026161834</v>
+        <v>1.847573676576928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6068797222267222</v>
+        <v>1.551892258348687</v>
       </c>
       <c r="C21">
-        <v>0.1923116496538171</v>
+        <v>0.1522367503450326</v>
       </c>
       <c r="D21">
-        <v>0.06050394214695132</v>
+        <v>0.1076159047929295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9687915966313483</v>
+        <v>0.6770536528713578</v>
       </c>
       <c r="G21">
-        <v>0.00245592183285077</v>
+        <v>0.0008005108560969128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9272011756170926</v>
+        <v>0.4370749949715744</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4235143466073623</v>
+        <v>1.373219445040547</v>
       </c>
       <c r="L21">
-        <v>0.3233248901143497</v>
+        <v>0.3283574727511791</v>
       </c>
       <c r="M21">
-        <v>0.2022506502047534</v>
+        <v>0.3707993979521405</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.404223462846943</v>
+        <v>1.900354182249316</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6403109666751732</v>
+        <v>1.667585522550382</v>
       </c>
       <c r="C22">
-        <v>0.1931799929236107</v>
+        <v>0.1547370054088404</v>
       </c>
       <c r="D22">
-        <v>0.06248756892084373</v>
+        <v>0.1133512962722136</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9703704645249047</v>
+        <v>0.7022779972105866</v>
       </c>
       <c r="G22">
-        <v>0.002454252945676713</v>
+        <v>0.0007976580457836946</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9231274189084573</v>
+        <v>0.4383635700243502</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4534939771348832</v>
+        <v>1.47163432387697</v>
       </c>
       <c r="L22">
-        <v>0.3272908201059153</v>
+        <v>0.3481574869284856</v>
       </c>
       <c r="M22">
-        <v>0.2094888851678292</v>
+        <v>0.3981221824221706</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.397045004103319</v>
+        <v>1.939147322698915</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6224627726755045</v>
+        <v>1.605780125367033</v>
       </c>
       <c r="C23">
-        <v>0.1927163740238953</v>
+        <v>0.1534004861329947</v>
       </c>
       <c r="D23">
-        <v>0.06143013675273323</v>
+        <v>0.1102901658509126</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9694850980626342</v>
+        <v>0.688683830502157</v>
       </c>
       <c r="G23">
-        <v>0.002455137607671701</v>
+        <v>0.0007991758785706672</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9252662841134409</v>
+        <v>0.4375815022410734</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.437498006187127</v>
+        <v>1.419073202256868</v>
       </c>
       <c r="L23">
-        <v>0.3251618376388166</v>
+        <v>0.3375504737738311</v>
       </c>
       <c r="M23">
-        <v>0.2056206708975026</v>
+        <v>0.3835163238940922</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.400735172808226</v>
+        <v>1.918032618503418</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5549858760332995</v>
+        <v>1.372876026853504</v>
       </c>
       <c r="C24">
-        <v>0.1909643421446887</v>
+        <v>0.1483826180922492</v>
       </c>
       <c r="D24">
-        <v>0.05739762048008146</v>
+        <v>0.09869489212574223</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9670700814520785</v>
+        <v>0.6399858035877628</v>
       </c>
       <c r="G24">
-        <v>0.002458621423928997</v>
+        <v>0.0008050315607502202</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9341440819292401</v>
+        <v>0.4366317653167613</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3768150104939991</v>
+        <v>1.220706066381638</v>
       </c>
       <c r="L24">
-        <v>0.3173690926565058</v>
+        <v>0.2982078249774816</v>
       </c>
       <c r="M24">
-        <v>0.1910817339212869</v>
+        <v>0.3286794408456899</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.41781116053491</v>
+        <v>1.846779918327343</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4824814142274079</v>
+        <v>1.123593289794684</v>
       </c>
       <c r="C25">
-        <v>0.1890837799269534</v>
+        <v>0.1430531310761367</v>
       </c>
       <c r="D25">
-        <v>0.05298988616410583</v>
+        <v>0.08616758514585143</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9664706666923308</v>
+        <v>0.59280704862703</v>
       </c>
       <c r="G25">
-        <v>0.002462665907407074</v>
+        <v>0.0008115915071428123</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9453807581443883</v>
+        <v>0.4395430951692134</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3111619797895173</v>
+        <v>1.007781886919474</v>
       </c>
       <c r="L25">
-        <v>0.3095437646312575</v>
+        <v>0.2573301132392629</v>
       </c>
       <c r="M25">
-        <v>0.1756417802006069</v>
+        <v>0.2703829605612498</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.442853458381762</v>
+        <v>1.786775071060333</v>
       </c>
     </row>
   </sheetData>
